--- a/测试单-电子书_daisy_161124.xlsx
+++ b/测试单-电子书_daisy_161124.xlsx
@@ -2236,47 +2236,7 @@
     <cellStyle name="常规 3 7" xfId="17"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2911,7 +2871,7 @@
   <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G69" sqref="G69"/>
@@ -5542,7 +5502,7 @@
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L51:L57 L18:L49">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
